--- a/results/model_evaluation.xlsx
+++ b/results/model_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mean Squared Error</t>
+          <t>Mean Absolute Error</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean Absolute Error</t>
+          <t>R-squared Score</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>R-squared Score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Explained Variance Score</t>
         </is>
@@ -467,16 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3e-05</v>
+        <v>0.0032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00358</v>
+        <v>0.89864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88981</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.89109</v>
+        <v>0.89871</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5e-05</v>
+        <v>0.00351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00344</v>
+        <v>0.81665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8242699999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.82718</v>
+        <v>0.8189</v>
       </c>
     </row>
     <row r="4">
@@ -505,15 +494,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00135</v>
+        <v>0.02124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02124</v>
+        <v>0.03904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03904</v>
-      </c>
-      <c r="E4" t="n">
         <v>0.20267</v>
       </c>
     </row>
@@ -524,16 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0349</v>
+        <v>0.10037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10051</v>
+        <v>0.19253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1953</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.147</v>
+        <v>0.14914</v>
       </c>
     </row>
     <row r="6">
@@ -543,15 +526,12 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00592</v>
+        <v>0.04109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04109</v>
+        <v>0.07453</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07453</v>
-      </c>
-      <c r="E6" t="n">
         <v>0.32778</v>
       </c>
     </row>

--- a/results/model_evaluation.xlsx
+++ b/results/model_evaluation.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0032</v>
+        <v>0.00381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.89864</v>
+        <v>0.8549099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89871</v>
+        <v>0.85695</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00351</v>
+        <v>0.00417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.81665</v>
+        <v>0.7669899999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8189</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02124</v>
+        <v>0.02041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03904</v>
+        <v>0.09558999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20267</v>
+        <v>0.24202</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.10037</v>
+        <v>0.09723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19253</v>
+        <v>0.1938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14914</v>
+        <v>0.15096</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04109</v>
+        <v>0.03974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07453</v>
+        <v>0.07388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32778</v>
+        <v>0.32263</v>
       </c>
     </row>
   </sheetData>
